--- a/submissioin/coe_project.xlsx
+++ b/submissioin/coe_project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bander/Desktop/mx-kfupm/semseter-1/COE-502-01/coe-project/submissioin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB385C-07F2-EF40-9148-A03DEAE24B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE23B1-C99F-9443-8DB9-F82BC425E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{64E934FF-43A1-ED4B-B3F0-C2214751A4FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{64E934FF-43A1-ED4B-B3F0-C2214751A4FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="SPEEDUP_WAVE" sheetId="3" r:id="rId1"/>
+    <sheet name="SPEEDUP_open_mp_WAVE" sheetId="3" r:id="rId1"/>
+    <sheet name="SPEEDUP_open_mp_rb" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t xml:space="preserve">N </t>
   </si>
@@ -198,7 +199,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$C$1:$C$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -348,7 +349,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_WAVE!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -396,27 +397,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$C$3:$C$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>0.44444444444444448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>0.46153846153846151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47</c:v>
+                  <c:v>0.51063829787234039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61</c:v>
+                  <c:v>0.57377049180327866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +434,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$D$1:$D$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -649,7 +650,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_WAVE!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -697,27 +698,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$D$3:$D$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0.22222222222222224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.3529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.36956521739130438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59</c:v>
+                  <c:v>0.40677966101694918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73</c:v>
+                  <c:v>0.47945205479452052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +735,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$E$1:$E$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -818,7 +819,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_WAVE!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -866,27 +867,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$E$3:$E$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0363269424823413E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7968675842429994E-2</c:v>
+                  <c:v>0.10389610389610389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6954177897574122E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5399671298371437E-2</c:v>
+                  <c:v>0.13178294573643412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4607812980621348E-2</c:v>
+                  <c:v>0.14906832298136644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6811705224452274E-2</c:v>
+                  <c:v>0.18229166666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +904,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$F$1:$F$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$F$1:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1119,7 +1120,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_WAVE!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1167,27 +1168,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$F$3:$F$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1570639305445937E-2</c:v>
+                  <c:v>4.2553191489361708E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8129395218002815E-2</c:v>
+                  <c:v>5.9701492537313432E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9505851755526656E-2</c:v>
+                  <c:v>6.9364161849710976E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9307211811470756E-2</c:v>
+                  <c:v>7.1428571428571438E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7909111260353706E-2</c:v>
+                  <c:v>8.7912087912087905E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9682825328984365E-2</c:v>
+                  <c:v>0.10903426791277258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,7 +1328,7 @@
         <c:axId val="559952376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.2"/>
+          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1537,11 +1538,511 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$B$1</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sequential Excuation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-149B-494E-81B3-EF7A1CBC0B47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-149B-494E-81B3-EF7A1CBC0B47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S4/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$D$15:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-149B-494E-81B3-EF7A1CBC0B47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S8/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-149B-494E-81B3-EF7A1CBC0B47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S16/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-149B-494E-81B3-EF7A1CBC0B47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_WAVE!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1622,7 +2123,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1649,7 +2150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$B$3:$B$8</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1677,16 +2178,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000001-149B-494E-81B3-EF7A1CBC0B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$C$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1767,7 +2268,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1794,27 +2295,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$C$15:$C$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0329999999999999</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2160000000000002</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0460000000000003</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4729999999999999</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.18</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7810000000000006</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,16 +2323,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000003-149B-494E-81B3-EF7A1CBC0B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$D$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1912,7 +2413,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1939,27 +2440,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$D$15:$D$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0960000000000001</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4329999999999998</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7329999999999997</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7530000000000001</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.186999999999999</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,16 +2468,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000005-149B-494E-81B3-EF7A1CBC0B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$E$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2057,7 +2558,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2084,27 +2585,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$E$15:$E$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$E$15:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1070000000000002</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.452</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6929999999999996</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7530000000000001</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.054</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,16 +2613,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000007-149B-494E-81B3-EF7A1CBC0B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_WAVE!$F$2</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2202,7 +2703,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2229,27 +2730,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_WAVE!$F$15:$F$20</c:f>
+              <c:f>SPEEDUP_open_mp_WAVE!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2669999999999999</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8439999999999999</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1520000000000001</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8049999999999997</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.401</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.782</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2758,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000009-149B-494E-81B3-EF7A1CBC0B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2315,26 +2816,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SA"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2384,7 +2865,8 @@
         <c:axId val="559952376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.2"/>
+          <c:max val="3.21"/>
+          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2441,26 +2923,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SA"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -2496,14 +2958,9 @@
         <c:crossAx val="559952696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2540,21 +2997,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2574,46 +3016,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3169,536 +3571,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>119061</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:colOff>681192</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>430041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>491344</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>46220</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3727,16 +3613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>192953</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>705259</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>44632</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>830177</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190370</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4068,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1700C-2173-4A0F-B31C-5BC1A69BB710}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="61" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V52" sqref="Q34:V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4118,18 +4004,20 @@
         <v>0.04</v>
       </c>
       <c r="C3" s="4">
-        <v>0.12</v>
+        <f>B3/C15</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D3" s="4">
-        <v>0.18</v>
+        <f>B3/D15</f>
+        <v>0.22222222222222224</v>
       </c>
       <c r="E3" s="4">
         <f>B3/E15</f>
-        <v>4.0363269424823413E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F3" s="4">
         <f>B3/F15</f>
-        <v>3.1570639305445937E-2</v>
+        <v>4.2553191489361708E-2</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -4143,18 +4031,20 @@
         <v>0.08</v>
       </c>
       <c r="C4" s="4">
-        <v>0.18</v>
+        <f t="shared" ref="C4:C7" si="0">B4/C16</f>
+        <v>0.44444444444444448</v>
       </c>
       <c r="D4" s="4">
-        <v>0.24</v>
+        <f t="shared" ref="D4:D8" si="1">B4/D16</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E8" si="0">B4/E16</f>
-        <v>3.7968675842429994E-2</v>
+        <f t="shared" ref="E4:E7" si="2">B4/E16</f>
+        <v>0.10389610389610389</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F8" si="1">B4/F16</f>
-        <v>2.8129395218002815E-2</v>
+        <f t="shared" ref="F4:F8" si="3">B4/F16</f>
+        <v>5.9701492537313432E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4165,18 +4055,20 @@
         <v>0.12</v>
       </c>
       <c r="C5" s="4">
-        <v>0.26</v>
+        <f t="shared" si="0"/>
+        <v>0.46153846153846151</v>
       </c>
       <c r="D5" s="4">
-        <v>0.34</v>
+        <f t="shared" si="1"/>
+        <v>0.3529411764705882</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6954177897574122E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.9505851755526656E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.9364161849710976E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4187,18 +4079,20 @@
         <v>0.17</v>
       </c>
       <c r="C6" s="4">
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="D6" s="4">
-        <v>0.46</v>
+        <f t="shared" si="1"/>
+        <v>0.36956521739130438</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5399671298371437E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.13178294573643412</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>1.9307211811470756E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.1428571428571438E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4209,18 +4103,20 @@
         <v>0.24</v>
       </c>
       <c r="C7" s="4">
-        <v>0.47</v>
+        <f t="shared" si="0"/>
+        <v>0.51063829787234039</v>
       </c>
       <c r="D7" s="4">
-        <v>0.59</v>
+        <f t="shared" si="1"/>
+        <v>0.40677966101694918</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4607812980621348E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.14906832298136644</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7909111260353706E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.7912087912087905E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4231,18 +4127,20 @@
         <v>0.35</v>
       </c>
       <c r="C8" s="4">
-        <v>0.61</v>
+        <f>B8/C20</f>
+        <v>0.57377049180327866</v>
       </c>
       <c r="D8" s="4">
-        <v>0.73</v>
+        <f t="shared" si="1"/>
+        <v>0.47945205479452052</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6811705224452274E-2</v>
+        <f>B8/E20</f>
+        <v>0.18229166666666666</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>1.9682825328984365E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10903426791277258</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22" x14ac:dyDescent="0.2">
@@ -4261,16 +4159,16 @@
         <v>400</v>
       </c>
       <c r="C15" s="4">
-        <v>1.0329999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D15" s="4">
-        <v>0.98</v>
+        <v>0.18</v>
       </c>
       <c r="E15" s="4">
-        <v>0.99099999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="4">
-        <v>1.2669999999999999</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4278,16 +4176,16 @@
         <v>600</v>
       </c>
       <c r="C16" s="4">
-        <v>2.2160000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="D16" s="4">
-        <v>2.0960000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E16" s="4">
-        <v>2.1070000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="F16" s="4">
-        <v>2.8439999999999999</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4295,16 +4193,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="4">
-        <v>4.0460000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="D17" s="4">
-        <v>4.4329999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="E17" s="4">
-        <v>4.452</v>
+        <v>1.02</v>
       </c>
       <c r="F17" s="4">
-        <v>6.1520000000000001</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4312,16 +4210,16 @@
         <v>1000</v>
       </c>
       <c r="C18" s="4">
-        <v>6.4729999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="D18" s="4">
-        <v>6.7329999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="E18" s="4">
-        <v>6.6929999999999996</v>
+        <v>1.29</v>
       </c>
       <c r="F18" s="4">
-        <v>8.8049999999999997</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,16 +4227,16 @@
         <v>1200</v>
       </c>
       <c r="C19" s="4">
-        <v>7.18</v>
+        <v>0.47</v>
       </c>
       <c r="D19" s="4">
-        <v>9.7530000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="E19" s="4">
-        <v>9.7530000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="F19" s="4">
-        <v>13.401</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4346,16 +4244,16 @@
         <v>1400</v>
       </c>
       <c r="C20" s="4">
-        <v>9.7810000000000006</v>
+        <v>0.61</v>
       </c>
       <c r="D20" s="4">
-        <v>13.186999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E20" s="4">
-        <v>13.054</v>
+        <v>1.92</v>
       </c>
       <c r="F20" s="4">
-        <v>17.782</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="22" x14ac:dyDescent="0.2">
@@ -4374,16 +4272,16 @@
         <v>400</v>
       </c>
       <c r="B28" s="4">
-        <v>1.0329999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="C28" s="4">
-        <v>0.98</v>
+        <v>0.18</v>
       </c>
       <c r="D28" s="4">
-        <v>0.99099999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="4">
-        <v>1.2669999999999999</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4391,16 +4289,16 @@
         <v>600</v>
       </c>
       <c r="B29" s="4">
-        <v>2.2160000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="C29" s="4">
-        <v>2.0960000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="D29" s="4">
-        <v>2.1070000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="E29" s="4">
-        <v>2.8439999999999999</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,16 +4306,16 @@
         <v>800</v>
       </c>
       <c r="B30" s="4">
-        <v>4.0460000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="C30" s="4">
-        <v>4.4329999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="D30" s="4">
-        <v>4.452</v>
+        <v>1.02</v>
       </c>
       <c r="E30" s="4">
-        <v>6.1520000000000001</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4425,16 +4323,16 @@
         <v>1000</v>
       </c>
       <c r="B31" s="4">
-        <v>6.4729999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="C31" s="4">
-        <v>6.7329999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="D31" s="4">
-        <v>6.6929999999999996</v>
+        <v>1.29</v>
       </c>
       <c r="E31" s="4">
-        <v>8.8049999999999997</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4442,16 +4340,16 @@
         <v>1200</v>
       </c>
       <c r="B32" s="4">
-        <v>7.18</v>
+        <v>0.47</v>
       </c>
       <c r="C32" s="4">
-        <v>9.7530000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D32" s="4">
-        <v>9.7530000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="E32" s="4">
-        <v>13.401</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4459,16 +4357,16 @@
         <v>1400</v>
       </c>
       <c r="B33" s="4">
-        <v>9.7810000000000006</v>
+        <v>0.61</v>
       </c>
       <c r="C33" s="4">
-        <v>13.186999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="D33" s="4">
-        <v>13.054</v>
+        <v>1.92</v>
       </c>
       <c r="E33" s="4">
-        <v>17.782</v>
+        <v>3.21</v>
       </c>
     </row>
   </sheetData>
@@ -4481,4 +4379,430 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4D9D70-9B5A-6745-A1BB-00D9CDF77DBB}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="88" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>400</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="4">
+        <f>B3/C15</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3/D15</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="E3" s="4">
+        <f>B3/E15</f>
+        <v>0.08</v>
+      </c>
+      <c r="F3" s="4">
+        <f>B3/F15</f>
+        <v>4.2553191489361708E-2</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>600</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C7" si="0">B4/C16</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D8" si="1">B4/D16</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E7" si="2">B4/E16</f>
+        <v>0.10389610389610389</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F8" si="3">B4/F16</f>
+        <v>5.9701492537313432E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>800</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9364161849710976E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36956521739130438</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14906832298136644</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>8.7912087912087905E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="4">
+        <f>B8/C20</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.47945205479452052</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B8/E20</f>
+        <v>0.18229166666666666</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>400</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>600</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>800</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>400</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>600</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>800</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B27:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/submissioin/coe_project.xlsx
+++ b/submissioin/coe_project.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bander/Desktop/mx-kfupm/semseter-1/COE-502-01/coe-project/submissioin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE23B1-C99F-9443-8DB9-F82BC425E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684D91B-5AF0-AF4F-AA96-9D4A027B8B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{64E934FF-43A1-ED4B-B3F0-C2214751A4FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{64E934FF-43A1-ED4B-B3F0-C2214751A4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDUP_open_mp_WAVE" sheetId="3" r:id="rId1"/>
-    <sheet name="SPEEDUP_open_mp_rb" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="SPEEDUP_open_mp_rb" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2759,6 +2760,679 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-149B-494E-81B3-EF7A1CBC0B47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="559952696"/>
+        <c:axId val="559952376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559952696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Problem size </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559952376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559952376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.21"/>
+          <c:min val="4.0000000000000008E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execuation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559952696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_rb!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B47-4649-8E0B-E1E079CAC78B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_rb!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S4/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$D$15:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B47-4649-8E0B-E1E079CAC78B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_rb!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S8/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B47-4649-8E0B-E1E079CAC78B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_open_mp_rb!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S16/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_open_mp_rb!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7B47-4649-8E0B-E1E079CAC78B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3655,6 +4329,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>780186</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146442</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D657FD2-A075-B447-BE65-C8033451D65D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{796898CF-068F-4E60-B746-C37BD1B61EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3954,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1700C-2173-4A0F-B31C-5BC1A69BB710}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V52" sqref="Q34:V52"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,11 +5102,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B456B-07CD-FC4E-AD4C-43789968FE57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4D9D70-9B5A-6745-A1BB-00D9CDF77DBB}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4804,5 +5536,6 @@
     <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>